--- a/capstone_exercises/data/Protocol violations, exclusions, withdrawals.xlsx
+++ b/capstone_exercises/data/Protocol violations, exclusions, withdrawals.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - Nexus365\Tetanus\IT Study\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OUCRU\R cafe\Capstone exercises\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72BACAC-CE4A-4070-9613-363361A15612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MV before IM" sheetId="1" r:id="rId1"/>
-    <sheet name="MV before IT" sheetId="2" r:id="rId2"/>
-    <sheet name="Protocol violation" sheetId="3" r:id="rId3"/>
-    <sheet name="Withdrawals" sheetId="4" r:id="rId4"/>
-    <sheet name="IT Per protocol" sheetId="5" r:id="rId5"/>
-    <sheet name="IM per protocol" sheetId="6" r:id="rId6"/>
-    <sheet name="IM ITT" sheetId="10" r:id="rId7"/>
+    <sheet name="Pilot" sheetId="11" r:id="rId1"/>
+    <sheet name="MV before IM" sheetId="1" r:id="rId2"/>
+    <sheet name="MV before IT" sheetId="2" r:id="rId3"/>
+    <sheet name="Protocol violation" sheetId="3" r:id="rId4"/>
+    <sheet name="Withdrawals" sheetId="4" r:id="rId5"/>
+    <sheet name="IT Per protocol" sheetId="5" r:id="rId6"/>
+    <sheet name="IM per protocol" sheetId="6" r:id="rId7"/>
+    <sheet name="IM ITT" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'IM per protocol'!$A$1:$G$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'IT Per protocol'!$A$1:$C$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MV before IM'!$A$1:$E$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MV before IT'!$A$1:$B$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Protocol violation'!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'IM per protocol'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'IT Per protocol'!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MV before IM'!$A$1:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'MV before IT'!$A$1:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Protocol violation'!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="104">
   <si>
     <t>USUBJID</t>
   </si>
@@ -334,12 +336,27 @@
   </si>
   <si>
     <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>003-P01</t>
+  </si>
+  <si>
+    <t>003-P02</t>
+  </si>
+  <si>
+    <t>003-P03</t>
+  </si>
+  <si>
+    <t>003-P04</t>
+  </si>
+  <si>
+    <t>003-P05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
@@ -695,12 +712,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F645CF5-75ED-4953-A055-C22A731D39AA}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -740,13 +798,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E4"/>
+  <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -855,17 +913,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B12"/>
+  <autoFilter ref="A1:B12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1279,7 +1337,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F19">
+  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Protocol violagion and Allergy study IM )?) and no IT"/>
@@ -1291,8 +1349,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1332,8 +1390,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1460,13 +1518,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C8"/>
+  <autoFilter ref="A1:C8" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2053,17 +2111,17 @@
       <c r="C58" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G4"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
